--- a/DaySale_2025-05-18_15-35.xlsx
+++ b/DaySale_2025-05-18_15-35.xlsx
@@ -92,6 +92,15 @@
     <t>72.00</t>
   </si>
   <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>-1:0</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">IDOMALTOL  IRON30MG 56CAPS</t>
   </si>
   <si>
@@ -114,9 +123,6 @@
   </si>
   <si>
     <t>OCEAN FLUID+SPRAY</t>
-  </si>
-  <si>
-    <t>-1:0</t>
   </si>
   <si>
     <t>220.00</t>
@@ -757,7 +763,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="4">
-        <v>45795.649361248128</v>
+        <v>45795.64961032477</v>
       </c>
       <c r="F4" s="4"/>
       <c t="s" r="G4" s="3">
@@ -766,7 +772,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="4">
-        <v>45795.649361248128</v>
+        <v>45795.64961032477</v>
       </c>
       <c r="K4" s="4"/>
     </row>
@@ -951,7 +957,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c t="s" r="K12" s="10">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c t="s" r="L12" s="8">
         <v>29</v>
@@ -973,7 +979,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -981,7 +987,7 @@
         <v>25</v>
       </c>
       <c t="s" r="L13" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="M13" s="11">
         <v>14</v>
@@ -992,7 +998,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B14" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -1000,7 +1006,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1008,7 +1014,7 @@
         <v>25</v>
       </c>
       <c t="s" r="L14" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="M14" s="11">
         <v>14</v>
@@ -1019,7 +1025,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B15" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -1027,7 +1033,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1081,7 +1087,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1089,7 +1095,7 @@
         <v>25</v>
       </c>
       <c t="s" r="L17" s="8">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c t="s" r="M17" s="11">
         <v>14</v>
@@ -1100,7 +1106,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B18" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -1108,7 +1114,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1116,7 +1122,7 @@
         <v>25</v>
       </c>
       <c t="s" r="L18" s="8">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c t="s" r="M18" s="11">
         <v>14</v>
@@ -1135,7 +1141,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1162,7 +1168,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1189,12 +1195,12 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c t="s" r="K21" s="10">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c t="s" r="L21" s="8">
         <v>47</v>
@@ -1216,7 +1222,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1243,18 +1249,18 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c t="s" r="K23" s="10">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c t="s" r="L23" s="8">
         <v>51</v>
       </c>
       <c t="s" r="M23" s="11">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1278,10 +1284,10 @@
         <v>25</v>
       </c>
       <c t="s" r="L24" s="8">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c t="s" r="M24" s="11">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1289,7 +1295,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B25" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -1297,7 +1303,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1305,7 +1311,7 @@
         <v>25</v>
       </c>
       <c t="s" r="L25" s="8">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c t="s" r="M25" s="11">
         <v>14</v>
@@ -1316,7 +1322,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B26" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -1324,12 +1330,12 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c t="s" r="K26" s="10">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c t="s" r="L26" s="8">
         <v>57</v>
@@ -1351,15 +1357,15 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c t="s" r="K27" s="10">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c t="s" r="L27" s="8">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c t="s" r="M27" s="11">
         <v>14</v>
@@ -1370,7 +1376,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B28" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -1378,7 +1384,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1386,7 +1392,7 @@
         <v>25</v>
       </c>
       <c t="s" r="L28" s="8">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c t="s" r="M28" s="11">
         <v>14</v>
@@ -1405,7 +1411,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1413,7 +1419,7 @@
         <v>25</v>
       </c>
       <c t="s" r="L29" s="8">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c t="s" r="M29" s="11">
         <v>14</v>
@@ -1424,7 +1430,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B30" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -1432,7 +1438,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1440,35 +1446,62 @@
         <v>25</v>
       </c>
       <c t="s" r="L30" s="8">
+        <v>51</v>
+      </c>
+      <c t="s" r="M30" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c t="s" r="B31" s="8">
+        <v>64</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>14</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c t="s" r="K31" s="10">
+        <v>25</v>
+      </c>
+      <c t="s" r="L31" s="8">
         <v>13</v>
       </c>
-      <c t="s" r="M30" s="11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="12">
-        <v>63</v>
-      </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c t="s" r="F31" s="13">
-        <v>64</v>
-      </c>
-      <c r="G31" s="13"/>
-      <c r="H31" s="14"/>
-      <c t="s" r="I31" s="15">
+      <c t="s" r="M31" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="12">
         <v>65</v>
       </c>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c t="s" r="F32" s="13">
+        <v>66</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="14"/>
+      <c t="s" r="I32" s="15">
+        <v>67</v>
+      </c>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="58">
+  <mergeCells count="60">
     <mergeCell ref="C2:K2"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="E4:F4"/>
@@ -1524,9 +1557,11 @@
     <mergeCell ref="H29:J29"/>
     <mergeCell ref="B30:G30"/>
     <mergeCell ref="H30:J30"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="I31:M31"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="I32:M32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
